--- a/500all/speech_level/speeches_CHRG-114hhrg93967.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93967.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,63 +52,36 @@
     <t>400618</t>
   </si>
   <si>
-    <t>Jim Costa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costa. Thank you very much, Chairman Rouzer, and Members of the Subcommittee, and our Chairman who is here with us this morning. We do have a group of distinguished individuals on our panel, and I am pleased that they are going to be able to give an opportunity to let us get a better sense of the challenges we face when the World Trade Organization will rule on the appeal that has been made.    I think many of us who have been around for a while are familiar with the Mandatory Country-of-Origin Labeling rules, whether you refer to it as MCOOL or COOL, it is all the same. The fact is is that the debate has been going on for decades as to whether Country-of-Origin Labeling is an experiment that can or cannot work. Having worked with various elements of both the pork and the beef and the poultry, and other industries that have been impacted, the challenges facing Mandatory Country-of-Origin Labeling it was destined not to work for a number of factors. And while the supporters have argued the opposite, we have to look at the facts. I think we have seen increase in production costs, we have seen impacts to cost to consumers that are factoring in meat purchasing.    What I would like to hear today from our witnesses is how we move beyond the eventual ruling that we believe will be forthcoming. One thing is for certain, the World Trade Organization, the WTO, is set to release its decision on the United States' appeal in conjunction with the ruling, and the countries of Canada and Mexico are posed to react. To that end, we need to talk about the potential reaction, and as the Chairman indicated here of the Subcommittee, the fact that Secretary Vilsack has indicated that no Administrative action, if we have an adverse ruling, as many of us expect that we will have, is going to resolve the issue. And, therefore, we will have to move with legislation.    It is incumbent upon this Subcommittee and the full Committee then to take action. The challenges to our trading partners are significant. And for those of us who believe that trade is critical for our country's economic well-being, and especially for our agricultural economy throughout the 50 states, we can look at some harsh retaliation efforts that will take place if, in fact, what many of us conclude will occur in the next several months. As a matter of fact, and I suspect some of the witnesses will testify to this point, the Canadian Government has already published a list of commodities that will be subject to retaliatory measures. Estimates say that the impact could well be over $1 billion in California alone. We annually export a great deal. In California, our agricultural exports last year totaled over $18.5 billion, so this is significant.    I remember very clearly, only a few years ago, when we had a similar issue on trade with the Mexican Government on the trucking dispute, devastating effects, as we saw the Mexican Government take action on a host of issues involving agricultural products that we import--or export, excuse me, to Mexico. It was estimated that those retaliatory tariffs cost U.S. agriculture over $2.6 billion. Of course, it was Mexico's right to take that action. And it also impacted jobs, and when we have a recovering economy, jobs are critical. No one wants that, I don't believe. No one wants to see any retaliatory efforts made by Canada or Mexico. And I know that--or I sense, in talking with officials of those two governments, that they don't want to impose these proposed retaliation tariffs.    So I am pleased that this hearing is taking place this morning. It gives us an opportunity to establish a record as to the potential impacts. And I would also like the witnesses to suggest how you think we might want to go about with legislation in the event that action takes place, as many of us believe that it will. However, it is important that once this process is complete, that the Congress resolve this issue.    In closing, Mr. Chairman, I have heard from the livestock industry, the pork producers, as well as people from the wine and tree and other manufacturing processing industries throughout California who are very concerned about the potential retaliatory effects that could be taken by Canada and Mexico. It is time we get to work.    And again, thank you, Mr. Chairman, for calling this hearing of the Subcommittee. Thank you, Mr. Chairman, of the full Committee, because you and I talked about this issue over the last several years, and I know it concerns you as well. So I look forward to listening to the testimony.    The Chairman. Thank you, Mr. Costa.    I would now like to recognize the Chairman of the full Committee, Chairman Conaway.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Conaway</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conaway. Thanks, Chairman Rouzer, and, David, thank you for those kind comments.    I just want to do a couple of things. One, congratulate you on your chairmanship, and you are chairing your very first official hearing. You bring great talent and a wealth of background and experiences to the tasks, and I have great confidence in you and Mr. Costa that you will get this done.    I also want to thank our witnesses for coming here today to help us understand some of the retaliatory impacts that may occur if we fail to act, and in fact, the WTO rules against the appeal that is out there. This debate surrounding Mandatory Country-of-Origin Labeling precedes my term in Congress, although as a freshman, one of my first Floor speeches related to agriculture was related to this topic. In spite of the reservations that cattlemen and pork producers expressed at the time this was being considered that it wouldn't work and that we would suffer consequences as a result of it. Congress decided to go ahead and try to implement it, at great costs, and in my view, unquantifiable benefits as a result of this process. In addition to that, the impact has been that our North American livestock market has been fractured unnecessarily, and again for no good reason.    So as we examine the impacts of retaliation, if we lose the appeal, I hope that the Members will also recognize the failure of this experiment, and work together to avoid the economic damages that will be felt by American businesses both inside and outside agriculture.    So with that, Mr. Chairman, good luck on your role as Chairman of this Subcommittee, and I look forward to your leadership. I yield back.</t>
   </si>
   <si>
-    <t>Weber</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weber. Mr. Chairman, I appreciate the opportunity to represent NPPC at this hearing today.    Exports add significantly to the bottom line of each U.S. pork producer. U.S. exports of pork and pork products totaled 2.18 million metric tons in 2014, representing over \\1/4\\ of our total production. These exports add more than $63 to the value of each and every hog marketed. Mexico and Canada are our second and third largest foreign markets for pork, with U.S. exports totaling $1.55 billion and $904 million respectively.    Our exports to Canada since the implementation of the U.S.-Canada Free Trade Agreement in 1989 have grown over 20 times. Our pork exports to Mexico since NAFTA in 1994 have grown by over 12 times. We cannot afford to have these exports disrupted, nor can workers in allied sectors.    The U.S. pork industry supports an estimated 550,000 domestic jobs, mostly in rural areas, and about 110,000 of these are the result of pork exports. The loss of the Mexican and Canadian markets, valued at $2.4 billion, could, therefore, cost over 16,000 non-farm jobs. But these job losses are only those that relate to pork exports. According to a CRS report, it has been estimated that retaliation by both Mexico and Canada could target between $1 billion and $2 billion in exports from the United States. Other estimates suggest it could exceed $2 billion, and Canada and Mexico will likely seek an even higher number; perhaps as much as a combined total of $4 billion. If it comes to this, a WTO panel will ultimately decide the actual number. But any of these figures could result in a devastating blow to tens of thousands of people in our sector and others.    Canada has published a list of over three dozen categories of products that could be hit. Mexico has not yet made public its list, but our experience with retaliation by Mexico resulting from its successful challenge to the U.S. ban on Mexican trucking suggests that its list will be at least as long, and likely quite similar to the trucking retaliation. That retaliation totaled $2.4 billion.    We understand that Mexican importers are already looking for alternative sources of supply for products on the list. There is no way we can compete with products from other countries when our products are subject to steep retaliatory duties.    Regrettably for us, pork is on Canada's target list and will likely be on Mexico's. Because COOL involves agricultural products, retaliation is inevitably going to fall heavily on U.S. agriculture. If the situation were reversed, the United States would retaliate against imported products in the same sector. When the European Union refused to lift its illegal ban on imports of U.S. beef in the hormone dispute, we retaliated against European food products. But that dispute, involving trade of $93 million, pales in comparison with the Country-of-Origin Labeling case in terms of the scope of the retaliation involved.    Because the damage to U.S. exports will be multiplied across our economy, the economic effect will greatly exceed whatever retaliation is ultimately authorized by WTO, and will hurt many Americans that had nothing to do with implementing COOL. Not only will innocent bystanders be harmed, the economy as a whole will suffer. Professor Dermot Hayes of Iowa State University calculates that the effect of $2 billion in retaliation would be 17,000 lost U.S. jobs. Retaliation of $4 billion would double this figure. Estimates of state-by-state job losses are contained in Attachment 1 of the NPPC written statement.    We expect the WTO to once again rule against the United States in mid-May. Congress must be prepared to repeal the offending parts of the statute to bring the U.S. into compliance with WTO rules. Congress should not allow retaliation against pork producers and other sectors of the U.S. economy.    Thank you.</t>
   </si>
   <si>
-    <t>Wenk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wenk. Chairman Rouzer, Members of the Subcommittee, the U.S. Chamber is taking part in today's important hearing as co-chair, alongside the NAM (National Association of Manufacturers) of the COOL Reform Coalition. Launched 1 year ago, the COOL Reform Coalition includes companies and associations from a wide variety of sectors, including agriculture, agrifood and manufacturing that are advocating for U.S. compliance with obligations it has undertaken in the WTO agreements relating to the topic of this hearing.    COOL requirements are common and are often fully compatible with WTO agreements; however, an unambiguous series of rulings by WTO panels has recognized the U.S. COOL rule for muscle cuts of meat imposes real economic costs on the meat industry by forcing segregation of cattle and hogs, and requiring costly tracking systems and record-keeping. By imposing new costs exclusively on Canadian and Mexican producers has a discriminatory trade impact. This dispute has been unfolding for years and is now entering its final stage.    Why does this matter? Canada and Mexico are by far the largest markets for U.S. exports. Trade with our neighbors has reached $1.3 trillion annually. U.S. merchandise exports to Canada and Mexico rose by 66 percent over the past 5 years, topping $550 billion last year.    As noted, the COOL Reform Coalition is seeking U.S. compliance with its obligation under the WTO agreements. Our coalition is building on years of work by a variety of organizations representing ranchers, farmers, and food and agriculture businesses impacted by the COOL rule for muscle cuts of meat. Broad industry groups such as the Chamber have joined the debate over COOL to signal our concern about the broad impact retaliation could have on a wide variety of industries, including many well removed from agriculture. The Governments of Canada and Mexico have indicated they are fully prepared to proceed with WTO authorized retaliation against U.S. exports of agricultural, agrifood, and manufactured goods as soon as this summer, pending the outcome of the final appeal.    WTO-authorized retaliation by these two vital trading partners could result in billions of dollars of losses across multiple sectors. Many U.S.-made products will be subject to the steep tariffs that would effectively bar them from Canadian and Mexican markets.    A consensus has emerged that Congressional action is required to avert retaliation, and time for Congress to do so is running out. The WTO appellate body will release its final ruling no later than May 18, at which time it will be made public. Expert opinion is unanimous. This last ruling will confirm the U.S. is violating obligations it has undertaken as the member of the WTO. Over the past several years, the avenues open to the United States to avoid retaliation have dwindled. Our coalition proposed and advocated for several approaches, which are no longer feasible. Given the period of as little as 60 days between the announcement of the final ruling in May, and retaliation by Canada and Mexico, the only way to avert costly retaliation is for Congress to approve legislation repealing the COOL rule for muscle cuts of meat. For these reasons, the Chamber strongly urges Congress to move swiftly to approve legislation repealing the COOL requirements for muscle cuts of meat due to the imminent and all but certain adverse ruling by the WTO appellate body in May. Failure to do so would cost tens of thousands of American jobs, and jeopardize mutually beneficial trade relationships with our two closest neighbors and largest export markets.    The U.S. Chamber of Commerce and members of the COOL Reform Coalition appreciate the Committee's attention to this vital matter, and look forward to working with this Committee to reach this goal.    Thank you for the opportunity to testify today.</t>
   </si>
   <si>
-    <t>Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman, for the opportunity to testify on County-of-Origin Labeling, and the status of the WTO dispute.    U.S. producers overwhelmingly support COOL. They are proud of what they produce. Consumers demand more and more information about the food that they purchase.    In July of 2013, AMI, NCBA, NPPC, and others representing meatpackers, went to court to block USDA's revised COOL rule. The packers essentially argued that their First Amendment right to free speech included their right to not tell consumers what they didn't want consumers to know. Ultimately, courts found in favor of USDA and in favor of the COOL label.    Now, as to the WTO dispute, USDA issued a final rule to implement COOL in 2009. Canada and Mexico challenged that law and rules of the WTO, claiming that COOL created a trade-distorting impact by reducing the value and number of cattle and hogs shipped to the U.S. In 2011, the WTO dispute settlement body found that COOL does not provide enough accurate information to consumers, objecting to commingling and to confusing language. The appellate body also found that the objective of COOL was, in fact, legitimate under WTO rules. The appellate body finally found that record-keeping and verification requirements were disproportionate with the information conveyed to consumers.    In response, 2 years ago, USDA changed the rules to require labels that show each production step and prohibited commingling. Canada appealed, and WTO, last October, found that the revised rule improved the amount of information to consumers, but still required collection of too much information. The panel also noted that COOL was the least trade-restrictive measure to achieve the objectives of consumer disclosure. Both Canada and the U.S. subsequently appealed.    Its ruling is now expected in May 18. Given the narrowing of the scope of the issues in each successive WTO decision, it is entirely feasible that the appellate body may rule in favor of the U.S. If the body rules against the U.S., the WTO process provides for arbitration, after which potential sanctions could be authorized. In that case, a recent study by Auburn University's Dr. Taylor is important because it concludes that Canadian and Mexico beef producers suffered no damage as a result of COOL. That study is attached to my testimony.    Canada has been threatening retaliation, as we all know. Dr. Taylor, however, using mandatory price reporting data reported by the meatpackers, recently found that ``COOL did not directly cause the declines in livestock exports to the U.S., which largely coincided with the substantial economic downturn that sapped demand for more expensive meat products.'' The report issued three main and substantial findings. First, fed-cattle prices basis actually declined after COOL went into effect, meaning Canadian cattle producers and U.S. cattle producers received the same price for the same product after COOL as before COOL. Second, COOL did not negatively impact imports of slaughter cattle. And third, COOL did not significantly affect imports of feeder cattle.    Dr. Taylor's study was very robust, and directly contradicts the study that the Canadians had entered into the WTO record using proprietary data that is, frankly, not publicly available. The robust study conducted by Dr. Taylor demonstrates that Canada and Mexico's argument of restricted market access to the U.S. market as a result of COOL is simply not true. Importation of cattle from other markets is subject to a number of other variables that are independent of COOL. COOL has not had a negative impact on the Canadian industry. This study is extremely important when assessing retaliatory claims made by Canada and Mexico.    I would urge you to wait until we get a final decision from the WTO before any legislation is considered.    Thank you.</t>
   </si>
   <si>
-    <t>Dempsey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Dempsey. Chairman Rouzer, Members of the Subcommittee, thank you for the opportunity to be here on behalf of the National Association of Manufacturers; the nation's largest industrial association, representing over 14,000 manufacturers in every state in the country.    Last year, U.S. manufacturing output reached a record of $2.1 trillion, supported over 12 million jobs, and, of course, relies substantially on inputs from our nation's farmers and agriculture producers for many of our food and beverage products.    I am also appearing today as co-chair of the COOL Reform Coalition, along with my colleague, Mr. Wenk, from the U.S. Chamber.    Let me focus on five points. First, trade and U.S. manufactured exports are a critical source of growth for U.S. manufacturing and other industries in America. U.S. manufactured exports reached a record level last year of $1.4 trillion, supporting millions of jobs. That growth has been supported by decades of--since the creation of the World Trade Organization and other market-opening trade agreements under which the United States and other nations agree to play by a basic set of rules. Second, Canada and Mexico are by far the nation's largest export markets for our nation's manufacturers. Last year alone, they purchased $485 billion in manufactured goods from the United States. Third, the United States' continued failure to bring the COOL rule for meat into compliance with its WTO obligation is threatening substantial quantities of manufacturing goods exports to our two closest trading partners. There is wide expectation that the WTO will, in fact, rule again that this rule is out of compliance with the basic rules.    They have been found out of compliance not just once already, but three times. Canada has put forth a proposed retaliatory list, which includes many manufactured products such as steel pipes, heating appliances, office furniture, and mattresses. Mexico has not set forth what products it would put on its list, but manufacturers have already witnessed firsthand Mexican retaliation in the trucking case, where Mexico imposed tariffs as high as 45 percent on many products, resulting in lost sales and lost jobs. Manufactured goods were listed on Mexico's trucking retaliation list, including office equipment and a wide range of home appliances. Fourth, to be successful globally, manufacturers needed a respected and enforced global trading system. The United States led the world in writing these rules, including the creation of the WTO in 1995, where binding dispute settlement was a primary U.S. objective. Enforcement of the rules-based trading system has already helped American workers, farmers, and manufacturers secure access to overseas markets, and grow our exports and jobs here in the United States. If countries including the United States do not live up to their obligations, the system will be weakened, and our businesses and our workers will face the penalty. Fifth, and finally, time is running out. It is imperative that Congress act quickly, or else put at risk very substantial levels, some believe billions, in U.S. exports to Canada and Mexico, and the industries and jobs of tens of thousands of workers that produce those goods.    With the threat of retaliation looming for our nation's manufacturers, the NAM and the COOL Reform Coalition urge Congress to bring the United States back into compliance with its WTO obligations fully and quickly through the repeal of these WTO inconsistent meat labeling provisions.    Thank you for the opportunity to testify today. I look forward to working with the Committee to resolve this important issue.</t>
   </si>
   <si>
-    <t>LaFaille</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaFaille. Mr. Chairman, Ranking Member Costa, and Members of the Subcommittee, my name is Tom LaFaille with the California Wine Institute. We represent 1,000 California wineries and related businesses. We appreciate your leadership on this important issue.    COOL represents an enormous threat to California exports and U.S. exports of wine. Whether you are a wine consumer or not, there is a winery in every state in the United States, including the Chairman's home State of North Carolina, with Biltmore Estate Winery that exports. We have estimated that it is a $120 billion industry, which created over 800,000 jobs, largely in rural areas. So wineries represent an important economic factor around the country.    Globally, U.S. exports of wine reached $1.5 billion last year. It was slightly down due to the strong dollar and the West Coast port shutdown. Retaliatory tariff, whether by Mexico or Canada, would represent a significant additional challenge on top of the challenges we face. Wine Institute works to fight--to work against tariff trade barriers, tariff barriers, as well as non-tariff barriers, but it is a country's tariff that is the most significant factor in determining a market's export potential.    We estimate that COOL-related damages to the U.S. wine industry could reach upwards of $500 million. We know that retailers will soon begin buying elsewhere, price-sensitive consumers will shop elsewhere, and it will take years to gain back the current market share that we have.    We learned this the hard way with Mexico's two previous tariff retaliations. In 2007, we had sales of $22 million in exports to Mexico. After the retaliation, they quickly dropped to $11 million. That is a 50 percent drop in 1 year. And even after the tariffs were eliminated in 2011, it took another 3 years, to this year, before our exports finally reached the 2007 levels. So we know that retaliation will cause enormous loss of sales and U.S. jobs. So we urge Congress to act quickly once the WTO's decision is made, in order to prevent retaliation.    Thank you for your leadership and your efforts to grow U.S. exports.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Costa. Thank you very much, Mr. Chairman, for that privilege.    It is indeed my honor to introduce Mr. Smith of Harris Farms. I have worked with Harris Farms Company for decades. They have developed a reputation not only in California but across the country as one of the premiere producers of beef, from the grazing, to the feedlot, to the processing, and to the value-added. They export a great deal of beef products, and have pioneered opening new markets in Asia and elsewhere, and it is indeed our honor to have Mr. Smith, representing Harris Farms, here this morning. Thank you, Mr. Smith.</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. No, Congressman, thank you.    Last year, I had the privilege to be asked to testify before this Subcommittee on the state of the beef industry, and at that time, I identified Mandatory Country-of-Origin Labeling as a critical issue for the beef industry, and one that really needed Congress to act upon. Now, 1 year later, I find myself here at this Subcommittee again, asking one more time that Congress take up this legislation, which, in its simplest form, is a solution looking for a problem, but in reality, it is just bad public policy. And I don't think I need to remind you that the clock is ticking.    COOL has plagued our industry for years. Its supporters point to surveys showing that Americans want to know where their beef comes from, but most surveys fail to provide an accurate measure of how consumers actually vote, which is with their pocketbook.    As a family-owned, functionally-integrated cattle feeder and beef processor, Harris Ranch has experienced firsthand the cost associated with implementing COOL. From burdensome record-keeping of live animals, to sorting and segregating of carcasses in the coolers, to operating dedicated fabrication sets to separate the myriad of beef products generated from each and every carcass. Cattle producers are currently experiencing discounts ranging from $35 to $60 per head. They were applied for no other reason than Country-of-Origin Labeling. These discounts are hitting U.S. cattlemen, cattle feeders and processors that purchase cattle of Canadian and Mexican origin.    In the southern tier States of California, Arizona, New Mexico, and Texas, cattle producers often purchase feeder cattle from Mexico to graze on pastures, or place them in feedlots to finish in the United States. Mexican-origin cattle are extremely important to the southern tier states because they provide production efficiencies associated with keeping cattle pens full, bunk space occupied, and quite frankly, blood on the floor. They provide a consistent supply of fed cattle for beef processing facilities, and especially those that are located near the border.    I would turn to the fundamental question at hand. Why do we have COOL? I think everybody would agree, that question is especially important when you consider the WTO case. If Canada and Mexico win the most recent appeal, which we honestly believe they will, they will be allowed to retaliate not only against our industry, but many others as well, some of whom you have heard from today.    Cattle: Canada and Mexico are two of the beef industry's top export markets, worth roughly $1 billion a piece. That is big money for any industry. In fact, it equates to roughly \\1/3\\ of our total beef export value. If we lose access to those markets, it will have a profoundly negative impact on all U.S. beef producers. All of our current global market access equates to approximately $350 per fed steer and heifer marketed today. If we lose \\1/3\\ of that, roughly $115 will be taken directly out of the pocket of every cattleman in the United States.    But the monetary losses are not all of the problem. The vigorous defense of COOL by our government sends an antitrade signal to the international community. The WTO keeps telling us that COOL violates our trade commitments, but our government keeps saying no, it does not. Future trading partners will look at this issue closely, and use it before they ink any trade deals with us. I am certain we would do the same if we saw similar behavior from our trading partners.    Finally, I wonder why our government wants to hurt an industry for a simple marketing program, and that is really what it is. The vast majority of the industry does not want it, and consumers don't use it. COOL is about marketing, has nothing to do with food safety. Those who use that argument, it is basically a red herring because they just want to keep on to hold their position. At the end of the day, COOL is an experiment that has failed. We agree with Secretary Vilsack that Congress must act to fix COOL, but the only way to fix it and ensure that there won't be future WTO cases is to repeal it.    Thank you.</t>
   </si>
   <si>
-    <t>Bodor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bodor. Good morning. I am Alison Bodor, Executive Vice President of the National Confectioners Association, and I appreciate this opportunity to testify on behalf of America's confectionary companies that manufacture and market the vast majority of chocolate, gum, candy, and mints sold in the United States.    NCA also represents the companies that supply those manufacturers, and companies who serve as brokers. More than \\2/3\\ of NCA's 290 members are small businesses. Many of the industry's manufacturers are now fourth and fifth generation family-owned companies, started by immigrants before the turn of the century. The industry supports 70,000 jobs across the United States, and if you add in supplier and distribution networks, that number easily triples.    NCA members have long supported free trade. This is despite the fact that our companies are disadvantaged in our own domestic marketplace by U.S. agriculture subsidies that increase the price of sugar, one of our key ingredients, in the U.S. compared to the world price that our global competitors enjoy. Confectionary manufacturers are major users of U.S.-grown commodities, including sugar, corn sweeteners, dairy products, peanuts, almonds, and other nuts. These industries, of course, benefit also from U.S. exports of confections.    In 2014, U.S. confectioners exported more than $2 billion worth of candy, chocolate, gum, and mints, and bulk chocolate products around the world. Not surprisingly, Mexico and Canada are our most important trading partners. Forty percent of U.S. confectionary exports are to Canada, $900 million worth, while 15 percent are to Mexico. These two markets together total over 50 percent of U.S. confectionary exports. We are deeply concerned that retaliatory duties from both countries will target our industry.    Let me talk about Canada. Currently, four confectionary-related tariff codes are on Canada's proposed retaliatory duty list. These codes capture U.S.-made bulk chocolate preparations, finished chocolate confections, and sugar-free sweeteners. Together, these confectionary products represented $615 million of confectionary exports to Canada last year. U.S. confectioners have worked hard to grow the presence of U.S. confections and intermediate products in Canada, and our efforts are paying off. Exports of finished chocolate grew by almost $45 million in just the last 2 years, while exports of bulk chocolate grew by almost $12 million. Those years of investment will quickly be diminished if the retaliations from Canada are implemented. For all of these products; chocolate, bulk chocolate, wafers, biscuits, and sweeteners, there are Canadian and global competitors. Many American-made chocolates will disappear from Canadian shelves. Manufacturers in Canada that source critical raw materials from U.S.-based suppliers will shift supply chains outside of the United States. That loss of business will impact U.S. confectionary companies, their workers, and importantly, also their communities.    The Government of Mexico has not yet declared the products upon which they intend to levy duties if WTO grants retaliation, but U.S. confectioners are very troubled that our industry will again be targeted, as they were several years ago during the U.S.-Mexico cross-border trucking dispute. At that time, Mexico implemented a 20 percent duty on confectionary products. That resulted in a 50 percent drop in U.S. confectionary exports.    The longer these disputes are unresolved, the greater the consequences to the U.S. confectionary industry, and the communities in which those companies reside. U.S. confectioners urge Congress and the affected industries to find a resolution that ensures U.S. compliance with international trade obligations, and avoids retaliatory actions against our exports to the north, and possible retaliation for our exports to the south.    Thank you very much.</t>
   </si>
   <si>
@@ -187,9 +160,6 @@
     <t xml:space="preserve">    Mr. Costa. Okay.    All right, my time has expired, Mr. Chairman. Thank you. I will wait until the next round, if there is one.    The Chairman. Thank you, Mr. Costa.    I now recognize Mr. Emmer.</t>
   </si>
   <si>
-    <t>Emmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Emmer. Thank you, Mr. Chairman.    As you know, I come from Minnesota, and when I arrived here to Congress, some of the advice I received was focus on an area that is not only in your wheelhouse but it is important to your state, as opposed to getting involved in everything. Minnesota is still home to 19 Fortune 500 companies, and our two biggest private economic drivers are agriculture and manufacturing. Our state is all about trade, including trade with Canada and Mexico. In fact, Canada is Minnesota's top export market, and it is our number one export market for agriculture and agrifood.    The questions that I have, and I will try to keep them brief, is first, many of you have talked about the effects of retaliation to your producers or members, but what would these retaliations look like to the average person buying a pound of ground beef at the grocery store, or an office chair at Office Depot? Can you give me an idea what that will look like to the consumer?</t>
   </si>
   <si>
@@ -217,9 +187,6 @@
     <t>412525</t>
   </si>
   <si>
-    <t>Ted S. Yoho</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman. I appreciate the opportunity. I appreciate your testimony.    COOL started in 2002, and it was implemented in 2009. Since that time, we have had this disgruntlement, the disruption of the market, the lawsuits and all that, and when I look at the responsibility of the USDA, is it the responsibility of the USDA and the government to illustrate the origin of the meat that the U.S. consumer eats, like Canada and Mexico, or is it a trade issue?    Mr. Smith, let me ask you first.</t>
   </si>
   <si>
@@ -250,9 +217,6 @@
     <t>412660</t>
   </si>
   <si>
-    <t>Dan Newhouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you very much, Mr. Chairman, and you are doing a great job this morning. Thank you all for being here and helping us understand the implications of this very important issue.    Let me take the brief time I have to ask a couple of questions real quickly. First of all to Mr. Weber and Mr. Smith, you have talked about the cost of COOL and the implications that it has had on our industries. Since its enactment, can you point to anything of benefit, increased sales, any kinds of an upside to this at all? I am trying to understand if there is a flipside to this as well.</t>
   </si>
   <si>
@@ -284,9 +248,6 @@
   </si>
   <si>
     <t>412444</t>
-  </si>
-  <si>
-    <t>Vicky Hartzler</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Hartzler. Either one works, but I am proud to be a lifelong farmer and glad to be here today in this very, very important issue. I appreciate your testimony.    I wanted to start with Mr. Weber and Mr. Smith. Secretary Vilsack recently stated that if we lose the appeal of the WTO, Congress essentially has two options; come up with some sort of generic label, or repeal the current law. So I was just wondering, has the Secretary approached either of your organizations to discuss possible alternatives to a full repeal of COOL?</t>
@@ -850,11 +811,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -874,13 +833,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -900,13 +857,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -926,13 +881,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -952,13 +905,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -978,13 +929,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1004,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1032,11 +979,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1056,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1082,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1108,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1134,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1162,11 +1099,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1186,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1214,11 +1147,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1238,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1266,11 +1195,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1290,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1318,11 +1243,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1342,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1370,11 +1291,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1394,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1422,11 +1339,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1446,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1474,11 +1387,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1498,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1526,11 +1435,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1550,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1578,11 +1483,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1602,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1630,11 +1531,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1654,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1682,11 +1579,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1706,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1734,11 +1627,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1758,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>57</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1784,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1810,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>57</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1836,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1862,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>57</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1888,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>57</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1914,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1940,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>57</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1966,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" t="s">
-        <v>67</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1992,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2018,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" t="s">
-        <v>67</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2044,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2070,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" t="s">
-        <v>67</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2096,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2122,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
-      </c>
-      <c r="G51" t="s">
-        <v>67</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2148,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2174,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
-      </c>
-      <c r="G53" t="s">
-        <v>67</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2200,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" t="s">
-        <v>78</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2226,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2252,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56" t="s">
-        <v>78</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2278,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2304,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
-      </c>
-      <c r="G58" t="s">
-        <v>78</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2330,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2356,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
-      </c>
-      <c r="G60" t="s">
-        <v>78</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2382,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2408,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" t="s">
-        <v>78</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2434,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63" t="s">
-        <v>78</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2460,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>89</v>
-      </c>
-      <c r="G64" t="s">
-        <v>90</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2486,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2512,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" t="s">
-        <v>90</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2538,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2564,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>89</v>
-      </c>
-      <c r="G68" t="s">
-        <v>90</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2590,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2616,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
-      </c>
-      <c r="G70" t="s">
-        <v>90</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2642,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2668,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>89</v>
-      </c>
-      <c r="G72" t="s">
-        <v>90</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2694,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2720,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
-      </c>
-      <c r="G74" t="s">
-        <v>90</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2746,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2772,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" t="s">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
         <v>90</v>
-      </c>
-      <c r="H76" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2798,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2826,11 +2635,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2852,11 +2659,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2876,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2904,11 +2707,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2928,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2954,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2982,11 +2779,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3008,11 +2803,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3032,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3060,11 +2851,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3084,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3112,11 +2899,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3138,11 +2923,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3164,11 +2947,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3188,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3216,11 +2995,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3240,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3266,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3294,11 +3067,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3318,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>77</v>
-      </c>
-      <c r="G97" t="s">
-        <v>78</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3344,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3370,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3396,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3422,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3448,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3474,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>77</v>
-      </c>
-      <c r="G103" t="s">
-        <v>78</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3500,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3526,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>77</v>
-      </c>
-      <c r="G105" t="s">
-        <v>78</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3552,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3578,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>77</v>
-      </c>
-      <c r="G107" t="s">
-        <v>78</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3604,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>89</v>
-      </c>
-      <c r="G108" t="s">
-        <v>90</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3630,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3656,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>89</v>
-      </c>
-      <c r="G110" t="s">
-        <v>90</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3682,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3708,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>89</v>
-      </c>
-      <c r="G112" t="s">
-        <v>90</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3734,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3760,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>89</v>
-      </c>
-      <c r="G114" t="s">
-        <v>90</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3786,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3812,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>89</v>
-      </c>
-      <c r="G116" t="s">
-        <v>90</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3838,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3864,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>89</v>
-      </c>
-      <c r="G118" t="s">
-        <v>90</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93967.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93967.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,36 +55,66 @@
     <t>400618</t>
   </si>
   <si>
+    <t>Costa</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Costa. Thank you very much, Chairman Rouzer, and Members of the Subcommittee, and our Chairman who is here with us this morning. We do have a group of distinguished individuals on our panel, and I am pleased that they are going to be able to give an opportunity to let us get a better sense of the challenges we face when the World Trade Organization will rule on the appeal that has been made.    I think many of us who have been around for a while are familiar with the Mandatory Country-of-Origin Labeling rules, whether you refer to it as MCOOL or COOL, it is all the same. The fact is is that the debate has been going on for decades as to whether Country-of-Origin Labeling is an experiment that can or cannot work. Having worked with various elements of both the pork and the beef and the poultry, and other industries that have been impacted, the challenges facing Mandatory Country-of-Origin Labeling it was destined not to work for a number of factors. And while the supporters have argued the opposite, we have to look at the facts. I think we have seen increase in production costs, we have seen impacts to cost to consumers that are factoring in meat purchasing.    What I would like to hear today from our witnesses is how we move beyond the eventual ruling that we believe will be forthcoming. One thing is for certain, the World Trade Organization, the WTO, is set to release its decision on the United States' appeal in conjunction with the ruling, and the countries of Canada and Mexico are posed to react. To that end, we need to talk about the potential reaction, and as the Chairman indicated here of the Subcommittee, the fact that Secretary Vilsack has indicated that no Administrative action, if we have an adverse ruling, as many of us expect that we will have, is going to resolve the issue. And, therefore, we will have to move with legislation.    It is incumbent upon this Subcommittee and the full Committee then to take action. The challenges to our trading partners are significant. And for those of us who believe that trade is critical for our country's economic well-being, and especially for our agricultural economy throughout the 50 states, we can look at some harsh retaliation efforts that will take place if, in fact, what many of us conclude will occur in the next several months. As a matter of fact, and I suspect some of the witnesses will testify to this point, the Canadian Government has already published a list of commodities that will be subject to retaliatory measures. Estimates say that the impact could well be over $1 billion in California alone. We annually export a great deal. In California, our agricultural exports last year totaled over $18.5 billion, so this is significant.    I remember very clearly, only a few years ago, when we had a similar issue on trade with the Mexican Government on the trucking dispute, devastating effects, as we saw the Mexican Government take action on a host of issues involving agricultural products that we import--or export, excuse me, to Mexico. It was estimated that those retaliatory tariffs cost U.S. agriculture over $2.6 billion. Of course, it was Mexico's right to take that action. And it also impacted jobs, and when we have a recovering economy, jobs are critical. No one wants that, I don't believe. No one wants to see any retaliatory efforts made by Canada or Mexico. And I know that--or I sense, in talking with officials of those two governments, that they don't want to impose these proposed retaliation tariffs.    So I am pleased that this hearing is taking place this morning. It gives us an opportunity to establish a record as to the potential impacts. And I would also like the witnesses to suggest how you think we might want to go about with legislation in the event that action takes place, as many of us believe that it will. However, it is important that once this process is complete, that the Congress resolve this issue.    In closing, Mr. Chairman, I have heard from the livestock industry, the pork producers, as well as people from the wine and tree and other manufacturing processing industries throughout California who are very concerned about the potential retaliatory effects that could be taken by Canada and Mexico. It is time we get to work.    And again, thank you, Mr. Chairman, for calling this hearing of the Subcommittee. Thank you, Mr. Chairman, of the full Committee, because you and I talked about this issue over the last several years, and I know it concerns you as well. So I look forward to listening to the testimony.    The Chairman. Thank you, Mr. Costa.    I would now like to recognize the Chairman of the full Committee, Chairman Conaway.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Conaway</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conaway. Thanks, Chairman Rouzer, and, David, thank you for those kind comments.    I just want to do a couple of things. One, congratulate you on your chairmanship, and you are chairing your very first official hearing. You bring great talent and a wealth of background and experiences to the tasks, and I have great confidence in you and Mr. Costa that you will get this done.    I also want to thank our witnesses for coming here today to help us understand some of the retaliatory impacts that may occur if we fail to act, and in fact, the WTO rules against the appeal that is out there. This debate surrounding Mandatory Country-of-Origin Labeling precedes my term in Congress, although as a freshman, one of my first Floor speeches related to agriculture was related to this topic. In spite of the reservations that cattlemen and pork producers expressed at the time this was being considered that it wouldn't work and that we would suffer consequences as a result of it. Congress decided to go ahead and try to implement it, at great costs, and in my view, unquantifiable benefits as a result of this process. In addition to that, the impact has been that our North American livestock market has been fractured unnecessarily, and again for no good reason.    So as we examine the impacts of retaliation, if we lose the appeal, I hope that the Members will also recognize the failure of this experiment, and work together to avoid the economic damages that will be felt by American businesses both inside and outside agriculture.    So with that, Mr. Chairman, good luck on your role as Chairman of this Subcommittee, and I look forward to your leadership. I yield back.</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weber. Mr. Chairman, I appreciate the opportunity to represent NPPC at this hearing today.    Exports add significantly to the bottom line of each U.S. pork producer. U.S. exports of pork and pork products totaled 2.18 million metric tons in 2014, representing over \\1/4\\ of our total production. These exports add more than $63 to the value of each and every hog marketed. Mexico and Canada are our second and third largest foreign markets for pork, with U.S. exports totaling $1.55 billion and $904 million respectively.    Our exports to Canada since the implementation of the U.S.-Canada Free Trade Agreement in 1989 have grown over 20 times. Our pork exports to Mexico since NAFTA in 1994 have grown by over 12 times. We cannot afford to have these exports disrupted, nor can workers in allied sectors.    The U.S. pork industry supports an estimated 550,000 domestic jobs, mostly in rural areas, and about 110,000 of these are the result of pork exports. The loss of the Mexican and Canadian markets, valued at $2.4 billion, could, therefore, cost over 16,000 non-farm jobs. But these job losses are only those that relate to pork exports. According to a CRS report, it has been estimated that retaliation by both Mexico and Canada could target between $1 billion and $2 billion in exports from the United States. Other estimates suggest it could exceed $2 billion, and Canada and Mexico will likely seek an even higher number; perhaps as much as a combined total of $4 billion. If it comes to this, a WTO panel will ultimately decide the actual number. But any of these figures could result in a devastating blow to tens of thousands of people in our sector and others.    Canada has published a list of over three dozen categories of products that could be hit. Mexico has not yet made public its list, but our experience with retaliation by Mexico resulting from its successful challenge to the U.S. ban on Mexican trucking suggests that its list will be at least as long, and likely quite similar to the trucking retaliation. That retaliation totaled $2.4 billion.    We understand that Mexican importers are already looking for alternative sources of supply for products on the list. There is no way we can compete with products from other countries when our products are subject to steep retaliatory duties.    Regrettably for us, pork is on Canada's target list and will likely be on Mexico's. Because COOL involves agricultural products, retaliation is inevitably going to fall heavily on U.S. agriculture. If the situation were reversed, the United States would retaliate against imported products in the same sector. When the European Union refused to lift its illegal ban on imports of U.S. beef in the hormone dispute, we retaliated against European food products. But that dispute, involving trade of $93 million, pales in comparison with the Country-of-Origin Labeling case in terms of the scope of the retaliation involved.    Because the damage to U.S. exports will be multiplied across our economy, the economic effect will greatly exceed whatever retaliation is ultimately authorized by WTO, and will hurt many Americans that had nothing to do with implementing COOL. Not only will innocent bystanders be harmed, the economy as a whole will suffer. Professor Dermot Hayes of Iowa State University calculates that the effect of $2 billion in retaliation would be 17,000 lost U.S. jobs. Retaliation of $4 billion would double this figure. Estimates of state-by-state job losses are contained in Attachment 1 of the NPPC written statement.    We expect the WTO to once again rule against the United States in mid-May. Congress must be prepared to repeal the offending parts of the statute to bring the U.S. into compliance with WTO rules. Congress should not allow retaliation against pork producers and other sectors of the U.S. economy.    Thank you.</t>
   </si>
   <si>
+    <t>Wenk</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wenk. Chairman Rouzer, Members of the Subcommittee, the U.S. Chamber is taking part in today's important hearing as co-chair, alongside the NAM (National Association of Manufacturers) of the COOL Reform Coalition. Launched 1 year ago, the COOL Reform Coalition includes companies and associations from a wide variety of sectors, including agriculture, agrifood and manufacturing that are advocating for U.S. compliance with obligations it has undertaken in the WTO agreements relating to the topic of this hearing.    COOL requirements are common and are often fully compatible with WTO agreements; however, an unambiguous series of rulings by WTO panels has recognized the U.S. COOL rule for muscle cuts of meat imposes real economic costs on the meat industry by forcing segregation of cattle and hogs, and requiring costly tracking systems and record-keeping. By imposing new costs exclusively on Canadian and Mexican producers has a discriminatory trade impact. This dispute has been unfolding for years and is now entering its final stage.    Why does this matter? Canada and Mexico are by far the largest markets for U.S. exports. Trade with our neighbors has reached $1.3 trillion annually. U.S. merchandise exports to Canada and Mexico rose by 66 percent over the past 5 years, topping $550 billion last year.    As noted, the COOL Reform Coalition is seeking U.S. compliance with its obligation under the WTO agreements. Our coalition is building on years of work by a variety of organizations representing ranchers, farmers, and food and agriculture businesses impacted by the COOL rule for muscle cuts of meat. Broad industry groups such as the Chamber have joined the debate over COOL to signal our concern about the broad impact retaliation could have on a wide variety of industries, including many well removed from agriculture. The Governments of Canada and Mexico have indicated they are fully prepared to proceed with WTO authorized retaliation against U.S. exports of agricultural, agrifood, and manufactured goods as soon as this summer, pending the outcome of the final appeal.    WTO-authorized retaliation by these two vital trading partners could result in billions of dollars of losses across multiple sectors. Many U.S.-made products will be subject to the steep tariffs that would effectively bar them from Canadian and Mexican markets.    A consensus has emerged that Congressional action is required to avert retaliation, and time for Congress to do so is running out. The WTO appellate body will release its final ruling no later than May 18, at which time it will be made public. Expert opinion is unanimous. This last ruling will confirm the U.S. is violating obligations it has undertaken as the member of the WTO. Over the past several years, the avenues open to the United States to avoid retaliation have dwindled. Our coalition proposed and advocated for several approaches, which are no longer feasible. Given the period of as little as 60 days between the announcement of the final ruling in May, and retaliation by Canada and Mexico, the only way to avert costly retaliation is for Congress to approve legislation repealing the COOL rule for muscle cuts of meat. For these reasons, the Chamber strongly urges Congress to move swiftly to approve legislation repealing the COOL requirements for muscle cuts of meat due to the imminent and all but certain adverse ruling by the WTO appellate body in May. Failure to do so would cost tens of thousands of American jobs, and jeopardize mutually beneficial trade relationships with our two closest neighbors and largest export markets.    The U.S. Chamber of Commerce and members of the COOL Reform Coalition appreciate the Committee's attention to this vital matter, and look forward to working with this Committee to reach this goal.    Thank you for the opportunity to testify today.</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman, for the opportunity to testify on County-of-Origin Labeling, and the status of the WTO dispute.    U.S. producers overwhelmingly support COOL. They are proud of what they produce. Consumers demand more and more information about the food that they purchase.    In July of 2013, AMI, NCBA, NPPC, and others representing meatpackers, went to court to block USDA's revised COOL rule. The packers essentially argued that their First Amendment right to free speech included their right to not tell consumers what they didn't want consumers to know. Ultimately, courts found in favor of USDA and in favor of the COOL label.    Now, as to the WTO dispute, USDA issued a final rule to implement COOL in 2009. Canada and Mexico challenged that law and rules of the WTO, claiming that COOL created a trade-distorting impact by reducing the value and number of cattle and hogs shipped to the U.S. In 2011, the WTO dispute settlement body found that COOL does not provide enough accurate information to consumers, objecting to commingling and to confusing language. The appellate body also found that the objective of COOL was, in fact, legitimate under WTO rules. The appellate body finally found that record-keeping and verification requirements were disproportionate with the information conveyed to consumers.    In response, 2 years ago, USDA changed the rules to require labels that show each production step and prohibited commingling. Canada appealed, and WTO, last October, found that the revised rule improved the amount of information to consumers, but still required collection of too much information. The panel also noted that COOL was the least trade-restrictive measure to achieve the objectives of consumer disclosure. Both Canada and the U.S. subsequently appealed.    Its ruling is now expected in May 18. Given the narrowing of the scope of the issues in each successive WTO decision, it is entirely feasible that the appellate body may rule in favor of the U.S. If the body rules against the U.S., the WTO process provides for arbitration, after which potential sanctions could be authorized. In that case, a recent study by Auburn University's Dr. Taylor is important because it concludes that Canadian and Mexico beef producers suffered no damage as a result of COOL. That study is attached to my testimony.    Canada has been threatening retaliation, as we all know. Dr. Taylor, however, using mandatory price reporting data reported by the meatpackers, recently found that ``COOL did not directly cause the declines in livestock exports to the U.S., which largely coincided with the substantial economic downturn that sapped demand for more expensive meat products.'' The report issued three main and substantial findings. First, fed-cattle prices basis actually declined after COOL went into effect, meaning Canadian cattle producers and U.S. cattle producers received the same price for the same product after COOL as before COOL. Second, COOL did not negatively impact imports of slaughter cattle. And third, COOL did not significantly affect imports of feeder cattle.    Dr. Taylor's study was very robust, and directly contradicts the study that the Canadians had entered into the WTO record using proprietary data that is, frankly, not publicly available. The robust study conducted by Dr. Taylor demonstrates that Canada and Mexico's argument of restricted market access to the U.S. market as a result of COOL is simply not true. Importation of cattle from other markets is subject to a number of other variables that are independent of COOL. COOL has not had a negative impact on the Canadian industry. This study is extremely important when assessing retaliatory claims made by Canada and Mexico.    I would urge you to wait until we get a final decision from the WTO before any legislation is considered.    Thank you.</t>
   </si>
   <si>
+    <t>Dempsey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Dempsey. Chairman Rouzer, Members of the Subcommittee, thank you for the opportunity to be here on behalf of the National Association of Manufacturers; the nation's largest industrial association, representing over 14,000 manufacturers in every state in the country.    Last year, U.S. manufacturing output reached a record of $2.1 trillion, supported over 12 million jobs, and, of course, relies substantially on inputs from our nation's farmers and agriculture producers for many of our food and beverage products.    I am also appearing today as co-chair of the COOL Reform Coalition, along with my colleague, Mr. Wenk, from the U.S. Chamber.    Let me focus on five points. First, trade and U.S. manufactured exports are a critical source of growth for U.S. manufacturing and other industries in America. U.S. manufactured exports reached a record level last year of $1.4 trillion, supporting millions of jobs. That growth has been supported by decades of--since the creation of the World Trade Organization and other market-opening trade agreements under which the United States and other nations agree to play by a basic set of rules. Second, Canada and Mexico are by far the nation's largest export markets for our nation's manufacturers. Last year alone, they purchased $485 billion in manufactured goods from the United States. Third, the United States' continued failure to bring the COOL rule for meat into compliance with its WTO obligation is threatening substantial quantities of manufacturing goods exports to our two closest trading partners. There is wide expectation that the WTO will, in fact, rule again that this rule is out of compliance with the basic rules.    They have been found out of compliance not just once already, but three times. Canada has put forth a proposed retaliatory list, which includes many manufactured products such as steel pipes, heating appliances, office furniture, and mattresses. Mexico has not set forth what products it would put on its list, but manufacturers have already witnessed firsthand Mexican retaliation in the trucking case, where Mexico imposed tariffs as high as 45 percent on many products, resulting in lost sales and lost jobs. Manufactured goods were listed on Mexico's trucking retaliation list, including office equipment and a wide range of home appliances. Fourth, to be successful globally, manufacturers needed a respected and enforced global trading system. The United States led the world in writing these rules, including the creation of the WTO in 1995, where binding dispute settlement was a primary U.S. objective. Enforcement of the rules-based trading system has already helped American workers, farmers, and manufacturers secure access to overseas markets, and grow our exports and jobs here in the United States. If countries including the United States do not live up to their obligations, the system will be weakened, and our businesses and our workers will face the penalty. Fifth, and finally, time is running out. It is imperative that Congress act quickly, or else put at risk very substantial levels, some believe billions, in U.S. exports to Canada and Mexico, and the industries and jobs of tens of thousands of workers that produce those goods.    With the threat of retaliation looming for our nation's manufacturers, the NAM and the COOL Reform Coalition urge Congress to bring the United States back into compliance with its WTO obligations fully and quickly through the repeal of these WTO inconsistent meat labeling provisions.    Thank you for the opportunity to testify today. I look forward to working with the Committee to resolve this important issue.</t>
   </si>
   <si>
+    <t>LaFaille</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LaFaille. Mr. Chairman, Ranking Member Costa, and Members of the Subcommittee, my name is Tom LaFaille with the California Wine Institute. We represent 1,000 California wineries and related businesses. We appreciate your leadership on this important issue.    COOL represents an enormous threat to California exports and U.S. exports of wine. Whether you are a wine consumer or not, there is a winery in every state in the United States, including the Chairman's home State of North Carolina, with Biltmore Estate Winery that exports. We have estimated that it is a $120 billion industry, which created over 800,000 jobs, largely in rural areas. So wineries represent an important economic factor around the country.    Globally, U.S. exports of wine reached $1.5 billion last year. It was slightly down due to the strong dollar and the West Coast port shutdown. Retaliatory tariff, whether by Mexico or Canada, would represent a significant additional challenge on top of the challenges we face. Wine Institute works to fight--to work against tariff trade barriers, tariff barriers, as well as non-tariff barriers, but it is a country's tariff that is the most significant factor in determining a market's export potential.    We estimate that COOL-related damages to the U.S. wine industry could reach upwards of $500 million. We know that retailers will soon begin buying elsewhere, price-sensitive consumers will shop elsewhere, and it will take years to gain back the current market share that we have.    We learned this the hard way with Mexico's two previous tariff retaliations. In 2007, we had sales of $22 million in exports to Mexico. After the retaliation, they quickly dropped to $11 million. That is a 50 percent drop in 1 year. And even after the tariffs were eliminated in 2011, it took another 3 years, to this year, before our exports finally reached the 2007 levels. So we know that retaliation will cause enormous loss of sales and U.S. jobs. So we urge Congress to act quickly once the WTO's decision is made, in order to prevent retaliation.    Thank you for your leadership and your efforts to grow U.S. exports.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Costa. Thank you very much, Mr. Chairman, for that privilege.    It is indeed my honor to introduce Mr. Smith of Harris Farms. I have worked with Harris Farms Company for decades. They have developed a reputation not only in California but across the country as one of the premiere producers of beef, from the grazing, to the feedlot, to the processing, and to the value-added. They export a great deal of beef products, and have pioneered opening new markets in Asia and elsewhere, and it is indeed our honor to have Mr. Smith, representing Harris Farms, here this morning. Thank you, Mr. Smith.</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. No, Congressman, thank you.    Last year, I had the privilege to be asked to testify before this Subcommittee on the state of the beef industry, and at that time, I identified Mandatory Country-of-Origin Labeling as a critical issue for the beef industry, and one that really needed Congress to act upon. Now, 1 year later, I find myself here at this Subcommittee again, asking one more time that Congress take up this legislation, which, in its simplest form, is a solution looking for a problem, but in reality, it is just bad public policy. And I don't think I need to remind you that the clock is ticking.    COOL has plagued our industry for years. Its supporters point to surveys showing that Americans want to know where their beef comes from, but most surveys fail to provide an accurate measure of how consumers actually vote, which is with their pocketbook.    As a family-owned, functionally-integrated cattle feeder and beef processor, Harris Ranch has experienced firsthand the cost associated with implementing COOL. From burdensome record-keeping of live animals, to sorting and segregating of carcasses in the coolers, to operating dedicated fabrication sets to separate the myriad of beef products generated from each and every carcass. Cattle producers are currently experiencing discounts ranging from $35 to $60 per head. They were applied for no other reason than Country-of-Origin Labeling. These discounts are hitting U.S. cattlemen, cattle feeders and processors that purchase cattle of Canadian and Mexican origin.    In the southern tier States of California, Arizona, New Mexico, and Texas, cattle producers often purchase feeder cattle from Mexico to graze on pastures, or place them in feedlots to finish in the United States. Mexican-origin cattle are extremely important to the southern tier states because they provide production efficiencies associated with keeping cattle pens full, bunk space occupied, and quite frankly, blood on the floor. They provide a consistent supply of fed cattle for beef processing facilities, and especially those that are located near the border.    I would turn to the fundamental question at hand. Why do we have COOL? I think everybody would agree, that question is especially important when you consider the WTO case. If Canada and Mexico win the most recent appeal, which we honestly believe they will, they will be allowed to retaliate not only against our industry, but many others as well, some of whom you have heard from today.    Cattle: Canada and Mexico are two of the beef industry's top export markets, worth roughly $1 billion a piece. That is big money for any industry. In fact, it equates to roughly \\1/3\\ of our total beef export value. If we lose access to those markets, it will have a profoundly negative impact on all U.S. beef producers. All of our current global market access equates to approximately $350 per fed steer and heifer marketed today. If we lose \\1/3\\ of that, roughly $115 will be taken directly out of the pocket of every cattleman in the United States.    But the monetary losses are not all of the problem. The vigorous defense of COOL by our government sends an antitrade signal to the international community. The WTO keeps telling us that COOL violates our trade commitments, but our government keeps saying no, it does not. Future trading partners will look at this issue closely, and use it before they ink any trade deals with us. I am certain we would do the same if we saw similar behavior from our trading partners.    Finally, I wonder why our government wants to hurt an industry for a simple marketing program, and that is really what it is. The vast majority of the industry does not want it, and consumers don't use it. COOL is about marketing, has nothing to do with food safety. Those who use that argument, it is basically a red herring because they just want to keep on to hold their position. At the end of the day, COOL is an experiment that has failed. We agree with Secretary Vilsack that Congress must act to fix COOL, but the only way to fix it and ensure that there won't be future WTO cases is to repeal it.    Thank you.</t>
   </si>
   <si>
+    <t>Bodor</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bodor. Good morning. I am Alison Bodor, Executive Vice President of the National Confectioners Association, and I appreciate this opportunity to testify on behalf of America's confectionary companies that manufacture and market the vast majority of chocolate, gum, candy, and mints sold in the United States.    NCA also represents the companies that supply those manufacturers, and companies who serve as brokers. More than \\2/3\\ of NCA's 290 members are small businesses. Many of the industry's manufacturers are now fourth and fifth generation family-owned companies, started by immigrants before the turn of the century. The industry supports 70,000 jobs across the United States, and if you add in supplier and distribution networks, that number easily triples.    NCA members have long supported free trade. This is despite the fact that our companies are disadvantaged in our own domestic marketplace by U.S. agriculture subsidies that increase the price of sugar, one of our key ingredients, in the U.S. compared to the world price that our global competitors enjoy. Confectionary manufacturers are major users of U.S.-grown commodities, including sugar, corn sweeteners, dairy products, peanuts, almonds, and other nuts. These industries, of course, benefit also from U.S. exports of confections.    In 2014, U.S. confectioners exported more than $2 billion worth of candy, chocolate, gum, and mints, and bulk chocolate products around the world. Not surprisingly, Mexico and Canada are our most important trading partners. Forty percent of U.S. confectionary exports are to Canada, $900 million worth, while 15 percent are to Mexico. These two markets together total over 50 percent of U.S. confectionary exports. We are deeply concerned that retaliatory duties from both countries will target our industry.    Let me talk about Canada. Currently, four confectionary-related tariff codes are on Canada's proposed retaliatory duty list. These codes capture U.S.-made bulk chocolate preparations, finished chocolate confections, and sugar-free sweeteners. Together, these confectionary products represented $615 million of confectionary exports to Canada last year. U.S. confectioners have worked hard to grow the presence of U.S. confections and intermediate products in Canada, and our efforts are paying off. Exports of finished chocolate grew by almost $45 million in just the last 2 years, while exports of bulk chocolate grew by almost $12 million. Those years of investment will quickly be diminished if the retaliations from Canada are implemented. For all of these products; chocolate, bulk chocolate, wafers, biscuits, and sweeteners, there are Canadian and global competitors. Many American-made chocolates will disappear from Canadian shelves. Manufacturers in Canada that source critical raw materials from U.S.-based suppliers will shift supply chains outside of the United States. That loss of business will impact U.S. confectionary companies, their workers, and importantly, also their communities.    The Government of Mexico has not yet declared the products upon which they intend to levy duties if WTO grants retaliation, but U.S. confectioners are very troubled that our industry will again be targeted, as they were several years ago during the U.S.-Mexico cross-border trucking dispute. At that time, Mexico implemented a 20 percent duty on confectionary products. That resulted in a 50 percent drop in U.S. confectionary exports.    The longer these disputes are unresolved, the greater the consequences to the U.S. confectionary industry, and the communities in which those companies reside. U.S. confectioners urge Congress and the affected industries to find a resolution that ensures U.S. compliance with international trade obligations, and avoids retaliatory actions against our exports to the north, and possible retaliation for our exports to the south.    Thank you very much.</t>
   </si>
   <si>
@@ -160,6 +193,9 @@
     <t xml:space="preserve">    Mr. Costa. Okay.    All right, my time has expired, Mr. Chairman. Thank you. I will wait until the next round, if there is one.    The Chairman. Thank you, Mr. Costa.    I now recognize Mr. Emmer.</t>
   </si>
   <si>
+    <t>Emmer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Emmer. Thank you, Mr. Chairman.    As you know, I come from Minnesota, and when I arrived here to Congress, some of the advice I received was focus on an area that is not only in your wheelhouse but it is important to your state, as opposed to getting involved in everything. Minnesota is still home to 19 Fortune 500 companies, and our two biggest private economic drivers are agriculture and manufacturing. Our state is all about trade, including trade with Canada and Mexico. In fact, Canada is Minnesota's top export market, and it is our number one export market for agriculture and agrifood.    The questions that I have, and I will try to keep them brief, is first, many of you have talked about the effects of retaliation to your producers or members, but what would these retaliations look like to the average person buying a pound of ground beef at the grocery store, or an office chair at Office Depot? Can you give me an idea what that will look like to the consumer?</t>
   </si>
   <si>
@@ -187,6 +223,12 @@
     <t>412525</t>
   </si>
   <si>
+    <t>Yoho</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman. I appreciate the opportunity. I appreciate your testimony.    COOL started in 2002, and it was implemented in 2009. Since that time, we have had this disgruntlement, the disruption of the market, the lawsuits and all that, and when I look at the responsibility of the USDA, is it the responsibility of the USDA and the government to illustrate the origin of the meat that the U.S. consumer eats, like Canada and Mexico, or is it a trade issue?    Mr. Smith, let me ask you first.</t>
   </si>
   <si>
@@ -217,6 +259,12 @@
     <t>412660</t>
   </si>
   <si>
+    <t>Newhouse</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you very much, Mr. Chairman, and you are doing a great job this morning. Thank you all for being here and helping us understand the implications of this very important issue.    Let me take the brief time I have to ask a couple of questions real quickly. First of all to Mr. Weber and Mr. Smith, you have talked about the cost of COOL and the implications that it has had on our industries. Since its enactment, can you point to anything of benefit, increased sales, any kinds of an upside to this at all? I am trying to understand if there is a flipside to this as well.</t>
   </si>
   <si>
@@ -248,6 +296,12 @@
   </si>
   <si>
     <t>412444</t>
+  </si>
+  <si>
+    <t>Hartzler</t>
+  </si>
+  <si>
+    <t>Vicky</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Hartzler. Either one works, but I am proud to be a lifelong farmer and glad to be here today in this very, very important issue. I appreciate your testimony.    I wanted to start with Mr. Weber and Mr. Smith. Secretary Vilsack recently stated that if we lose the appeal of the WTO, Congress essentially has two options; come up with some sort of generic label, or repeal the current law. So I was just wondering, has the Secretary approached either of your organizations to discuss possible alternatives to a full repeal of COOL?</t>
@@ -761,7 +815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,7 +823,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,2813 +845,3273 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G49" t="s">
+        <v>69</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G51" t="s">
+        <v>69</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G53" t="s">
+        <v>69</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G54" t="s">
+        <v>81</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G56" t="s">
+        <v>81</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G58" t="s">
+        <v>81</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G60" t="s">
+        <v>81</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G62" t="s">
+        <v>81</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G63" t="s">
+        <v>81</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G64" t="s">
+        <v>94</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G66" t="s">
+        <v>94</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G68" t="s">
+        <v>94</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G70" t="s">
+        <v>94</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G72" t="s">
+        <v>94</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>77</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G74" t="s">
+        <v>94</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G76" t="s">
+        <v>94</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>25</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>30</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>66</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G97" t="s">
+        <v>81</v>
+      </c>
       <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>30</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>25</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>32</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>66</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G103" t="s">
+        <v>81</v>
+      </c>
       <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>32</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G105" t="s">
+        <v>81</v>
+      </c>
       <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>66</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G107" t="s">
+        <v>81</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>77</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G108" t="s">
+        <v>94</v>
+      </c>
       <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>30</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>77</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G110" t="s">
+        <v>94</v>
+      </c>
       <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>30</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>77</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G112" t="s">
+        <v>94</v>
+      </c>
       <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>77</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G114" t="s">
+        <v>94</v>
+      </c>
       <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>32</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>77</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G116" t="s">
+        <v>94</v>
+      </c>
       <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>32</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>77</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G118" t="s">
+        <v>94</v>
+      </c>
       <c r="H118" t="s">
-        <v>132</v>
+        <v>95</v>
+      </c>
+      <c r="I118" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93967.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93967.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400618</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Costa</t>
   </si>
   <si>
@@ -221,6 +227,9 @@
   </si>
   <si>
     <t>412525</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Yoho</t>
@@ -815,7 +824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,7 +832,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,3270 +857,3496 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>59</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>59</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I56" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>25</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G64" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G66" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H66" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I66" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G68" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G70" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>30</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G72" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>30</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G74" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G76" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s">
-        <v>23</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s">
-        <v>23</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>25</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>30</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>32</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>21</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G97" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H97" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>30</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>25</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>23</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s">
-        <v>32</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G103" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H103" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I103" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s">
-        <v>32</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>34</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G105" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H105" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I105" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s">
-        <v>23</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G107" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H107" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G108" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H108" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I108" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>30</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>32</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G110" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H110" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I110" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s">
-        <v>30</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>32</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G112" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H112" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I112" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s">
-        <v>30</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>32</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G114" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H114" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I114" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s">
-        <v>32</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>34</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G116" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H116" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I116" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s">
-        <v>32</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G118" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H118" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I118" t="s">
-        <v>150</v>
+        <v>98</v>
+      </c>
+      <c r="J118" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
